--- a/assets/templates/kardex_report-template.xlsx
+++ b/assets/templates/kardex_report-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\inventario-ts\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickgiraldo/Documents/Repos/inventario-ts/assets/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2AAE1-A0F4-4629-B134-86DB7DC9796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D187FDC6-4343-BC4A-ADA6-8C5E817D7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kardex Report" sheetId="1" r:id="rId1"/>
@@ -238,6 +238,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,9 +248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,16 +595,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -653,45 +653,45 @@
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:9" ht="18">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="8" t="s">
         <v>2</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9" t="s">
@@ -739,16 +739,16 @@
       <c r="D10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
